--- a/Heathrow_OD.xlsx
+++ b/Heathrow_OD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas1.cc.ic.ac.uk\jg3920\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakon\OneDrive\Documents\GitHub\imperialgroupproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D78F0-D10D-4F21-8C8E-7C82C92A7D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2493A5-7AED-45C0-AE9C-9C27F110178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6518A006-7EBE-4113-A971-0A2C79AC7A08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6518A006-7EBE-4113-A971-0A2C79AC7A08}"/>
   </bookViews>
   <sheets>
     <sheet name="District " sheetId="1" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1245,6 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1265,7 +1266,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INPUT&gt;&gt;&gt;"/>
@@ -6373,9 +6374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6413,7 +6414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6519,7 +6520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6661,7 +6662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6669,19 +6670,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EADB35-67CD-4B9A-856B-604CAE04ECC7}">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6698,14 +6700,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6725,8 +6727,9 @@
         <f>'[1]District Level'!P6</f>
         <v>0.27206344841110686</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6746,8 +6749,9 @@
         <f>'[1]District Level'!P7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -6767,8 +6771,9 @@
         <f>'[1]District Level'!P8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6788,8 +6793,9 @@
         <f>'[1]District Level'!P9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -6809,8 +6815,9 @@
         <f>'[1]District Level'!P10</f>
         <v>6.2811565872841965E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6830,8 +6837,9 @@
         <f>'[1]District Level'!P11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6851,8 +6859,9 @@
         <f>'[1]District Level'!P12</f>
         <v>0.34787840847115492</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6872,8 +6881,9 @@
         <f>'[1]District Level'!P13</f>
         <v>7.2652596778366982E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6893,8 +6903,9 @@
         <f>'[1]District Level'!P14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6914,8 +6925,9 @@
         <f>'[1]District Level'!P15</f>
         <v>0.30050534850922522</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6935,8 +6947,9 @@
         <f>'[1]District Level'!P16</f>
         <v>3.4350187377115121E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6956,8 +6969,9 @@
         <f>'[1]District Level'!P17</f>
         <v>0.22095265922364224</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6977,8 +6991,9 @@
         <f>'[1]District Level'!P18</f>
         <v>0.25480216023665458</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -6998,8 +7013,9 @@
         <f>'[1]District Level'!P19</f>
         <v>0.21620720822043243</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7019,8 +7035,9 @@
         <f>'[1]District Level'!P20</f>
         <v>0.59386069842197864</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7040,8 +7057,9 @@
         <f>'[1]District Level'!P21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7061,8 +7079,9 @@
         <f>'[1]District Level'!P22</f>
         <v>9.6407133375731383E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -7082,8 +7101,9 @@
         <f>'[1]District Level'!P23</f>
         <v>4.8275138401791276E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -7103,8 +7123,9 @@
         <f>'[1]District Level'!P24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7124,8 +7145,9 @@
         <f>'[1]District Level'!P25</f>
         <v>0.11198161872590766</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7145,8 +7167,9 @@
         <f>'[1]District Level'!P26</f>
         <v>9.6710459790204484E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7166,8 +7189,9 @@
         <f>'[1]District Level'!P27</f>
         <v>0.22674530110912794</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -7187,8 +7211,9 @@
         <f>'[1]District Level'!P28</f>
         <v>0.12932624474481896</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -7208,8 +7233,9 @@
         <f>'[1]District Level'!P29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -7229,8 +7255,9 @@
         <f>'[1]District Level'!P30</f>
         <v>0.60489356679050121</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7250,8 +7277,9 @@
         <f>'[1]District Level'!P31</f>
         <v>0.5808037251265995</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7271,8 +7299,9 @@
         <f>'[1]District Level'!P32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -7292,8 +7321,9 @@
         <f>'[1]District Level'!P33</f>
         <v>4.2343634580204785E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7313,8 +7343,9 @@
         <f>'[1]District Level'!P34</f>
         <v>0.22252594356436195</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7334,8 +7365,9 @@
         <f>'[1]District Level'!P35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7355,8 +7387,9 @@
         <f>'[1]District Level'!P36</f>
         <v>9.1580367130908325E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -7377,7 +7410,7 @@
         <v>3.1186515724651989E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -7398,7 +7431,7 @@
         <v>0.53129090241270005</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -7419,7 +7452,7 @@
         <v>0.13586749592652592</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -7440,7 +7473,7 @@
         <v>0.3005404289818695</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -7461,7 +7494,7 @@
         <v>0.30187540533533624</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -7482,7 +7515,7 @@
         <v>0.24210590358830475</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -7503,7 +7536,7 @@
         <v>0.10598099338297914</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -7524,7 +7557,7 @@
         <v>0.20745217913604583</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -7545,7 +7578,7 @@
         <v>0.11799088090595287</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -7566,7 +7599,7 @@
         <v>0.14373098062106873</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -7587,7 +7620,7 @@
         <v>0.33113739680024679</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -7608,7 +7641,7 @@
         <v>0.11386418335104899</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -7629,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -7650,7 +7683,7 @@
         <v>0.13834720538219955</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -7671,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -7692,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -7713,7 +7746,7 @@
         <v>0.31960241510634796</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -7734,7 +7767,7 @@
         <v>0.43133976425051779</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7788,7 @@
         <v>0.27300182388357769</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -7776,7 +7809,7 @@
         <v>0.6122252517255552</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -7797,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -7818,7 +7851,7 @@
         <v>0.32364656192821245</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -7839,7 +7872,7 @@
         <v>0.12209726482747034</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -7860,7 +7893,7 @@
         <v>0.92247380176898019</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -7881,7 +7914,7 @@
         <v>9.7382748020141879E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -7902,7 +7935,7 @@
         <v>0.19126652538310243</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -7923,7 +7956,7 @@
         <v>4.2946441452976991E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -7944,7 +7977,7 @@
         <v>4.5213914046841081E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -7965,7 +7998,7 @@
         <v>0.39507349254566204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -7986,7 +8019,7 @@
         <v>0.16819309375096864</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8007,7 +8040,7 @@
         <v>0.15018718968512473</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -8028,7 +8061,7 @@
         <v>6.6793637079772095E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -8049,7 +8082,7 @@
         <v>3.2584583972040067E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -8070,7 +8103,7 @@
         <v>0.46375150874659765</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -8091,7 +8124,7 @@
         <v>0.67632070356503771</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -8112,7 +8145,7 @@
         <v>6.9103613238882769E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -8133,7 +8166,7 @@
         <v>6.0376991019718301E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -8154,7 +8187,7 @@
         <v>2.814286532545068E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -8175,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -8196,7 +8229,7 @@
         <v>0.64015144856012141</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -8217,7 +8250,7 @@
         <v>0.62090385629127698</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -8238,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -8259,7 +8292,7 @@
         <v>0.22119130517233748</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -8280,7 +8313,7 @@
         <v>0.74967896899146935</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -8301,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -8322,7 +8355,7 @@
         <v>0.15164749980979031</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -8343,7 +8376,7 @@
         <v>0.17196212343026263</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -8364,7 +8397,7 @@
         <v>2.2123746961522424E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -8385,7 +8418,7 @@
         <v>0.49709220872090082</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -8406,7 +8439,7 @@
         <v>0.2054168323010182</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -8427,7 +8460,7 @@
         <v>0.81820317564636502</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -8448,7 +8481,7 @@
         <v>0.1011144726155804</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -8469,7 +8502,7 @@
         <v>0.1315759913811389</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -8490,7 +8523,7 @@
         <v>3.5222550472229414E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -8511,7 +8544,7 @@
         <v>0.61082107824096821</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -8532,7 +8565,7 @@
         <v>0.24083652663743182</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -8553,7 +8586,7 @@
         <v>0.10553271854422622</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -8574,7 +8607,7 @@
         <v>0.31100094026062658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -8595,7 +8628,7 @@
         <v>0.10149666599598407</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -8616,7 +8649,7 @@
         <v>0.60457764148910187</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -8637,7 +8670,7 @@
         <v>0.34913517469827243</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -8658,7 +8691,7 @@
         <v>6.4015453619333945E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -8679,7 +8712,7 @@
         <v>0.25462980523904483</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -8700,7 +8733,7 @@
         <v>8.6208907335171753E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -8721,7 +8754,7 @@
         <v>0.13597625173282601</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -8742,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -8763,7 +8796,7 @@
         <v>0.3833340452685548</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -8784,7 +8817,7 @@
         <v>0.11661259647786934</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -8805,7 +8838,7 @@
         <v>6.6826163501818608E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -8826,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -8847,7 +8880,7 @@
         <v>0.14146403031570859</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -8868,7 +8901,7 @@
         <v>0.12254635692044868</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -8889,7 +8922,7 @@
         <v>0.43628235273121879</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -8910,7 +8943,7 @@
         <v>4.9362134045899578E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -8931,7 +8964,7 @@
         <v>0.50253472142777444</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -8952,7 +8985,7 @@
         <v>0.16656655469051673</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -8973,7 +9006,7 @@
         <v>0.21184709116833828</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -8994,7 +9027,7 @@
         <v>7.7685182282546159E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -9015,7 +9048,7 @@
         <v>3.8835773832462943E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -9036,7 +9069,7 @@
         <v>0.45489927100910854</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -9057,7 +9090,7 @@
         <v>6.8419354068378884E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -9078,7 +9111,7 @@
         <v>0.37057271713831763</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -9099,7 +9132,7 @@
         <v>0.28760893455890474</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -9120,7 +9153,7 @@
         <v>1.6935831544136352E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -9141,7 +9174,7 @@
         <v>6.2916178820911925E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -9162,7 +9195,7 @@
         <v>0.26698789791120126</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -9183,7 +9216,7 @@
         <v>0.5596861213125135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -9204,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -9225,7 +9258,7 @@
         <v>3.7693823979497693E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -9246,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -9267,7 +9300,7 @@
         <v>0.22048567813355285</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -9288,7 +9321,7 @@
         <v>0.29268058897446403</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -9309,7 +9342,7 @@
         <v>6.1741005485574596E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -9330,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -9351,7 +9384,7 @@
         <v>0.37949309929927216</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -9372,7 +9405,7 @@
         <v>9.1667841318288631E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -9393,7 +9426,7 @@
         <v>0.36886921811887252</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -9414,7 +9447,7 @@
         <v>3.9766397930582092E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -9435,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -9456,7 +9489,7 @@
         <v>0.10006056518832845</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -9477,7 +9510,7 @@
         <v>7.9734677854259431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -9498,7 +9531,7 @@
         <v>0.48802016068997101</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -9519,7 +9552,7 @@
         <v>9.1898374720448817E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -9540,7 +9573,7 @@
         <v>9.035772646230783E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -9561,7 +9594,7 @@
         <v>0.65881204433385154</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -9582,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -9603,7 +9636,7 @@
         <v>0.3938300789372241</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -9624,7 +9657,7 @@
         <v>0.50989833999970657</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -9645,7 +9678,7 @@
         <v>0.10110518074728374</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -9666,7 +9699,7 @@
         <v>0.5731709406980956</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -9687,7 +9720,7 @@
         <v>0.2859781221916779</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -9708,7 +9741,7 @@
         <v>0.25538404664415232</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -9729,7 +9762,7 @@
         <v>9.9658052668643013E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -9750,7 +9783,7 @@
         <v>1.3497101295446932E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -9771,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -9792,7 +9825,7 @@
         <v>0.11150452069582178</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -9813,7 +9846,7 @@
         <v>4.5828328172941392E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -9834,7 +9867,7 @@
         <v>0.30183425990884449</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -9855,7 +9888,7 @@
         <v>0.20896006001090764</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -9876,7 +9909,7 @@
         <v>0.11115291840484173</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -9897,7 +9930,7 @@
         <v>0.49964759252652308</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -9918,7 +9951,7 @@
         <v>0.20551082277970806</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -9939,7 +9972,7 @@
         <v>9.5926020021775193E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -9960,7 +9993,7 @@
         <v>0.10185848107352395</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -9981,7 +10014,7 @@
         <v>1.7509789266516515E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -10002,7 +10035,7 @@
         <v>0.22955109135729454</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -10023,7 +10056,7 @@
         <v>0.23881528994472848</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -10044,7 +10077,7 @@
         <v>0.15364533831798147</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -10065,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -10086,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -10107,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -10128,7 +10161,7 @@
         <v>0.6217141396429996</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -10149,7 +10182,7 @@
         <v>0.51234464276710334</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -10170,7 +10203,7 @@
         <v>8.9021387998466012E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -10191,7 +10224,7 @@
         <v>0.17167057821286091</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -10212,7 +10245,7 @@
         <v>0.54476488821909019</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -10233,7 +10266,7 @@
         <v>7.4565178115862663E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -10254,7 +10287,7 @@
         <v>0.40126174113943769</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -10275,7 +10308,7 @@
         <v>0.32630337260106829</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -10296,7 +10329,7 @@
         <v>0.49619637612665618</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -10317,7 +10350,7 @@
         <v>0.56857743017974549</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -10338,7 +10371,7 @@
         <v>0.33742475681865769</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -10359,7 +10392,7 @@
         <v>9.4066845240936434E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -10380,7 +10413,7 @@
         <v>0.16722966975365205</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -10401,7 +10434,7 @@
         <v>0.46736546670081247</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -10422,7 +10455,7 @@
         <v>0.16125064721752397</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -10443,7 +10476,7 @@
         <v>0.35350927617186195</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -10464,7 +10497,7 @@
         <v>0.39885220018974343</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -10485,7 +10518,7 @@
         <v>0.12207623449363306</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -10506,7 +10539,7 @@
         <v>0.14022394907978761</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -10527,7 +10560,7 @@
         <v>0.24897848169053891</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -10548,7 +10581,7 @@
         <v>0.20271844922805754</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -10569,7 +10602,7 @@
         <v>0.32331018805577655</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -10590,7 +10623,7 @@
         <v>0.38877653007560031</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -10611,7 +10644,7 @@
         <v>0.19707089052067683</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -10632,7 +10665,7 @@
         <v>0.31859788095440761</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -10653,7 +10686,7 @@
         <v>0.13398802981074362</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -10674,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -10695,7 +10728,7 @@
         <v>0.23784363540769329</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -10716,7 +10749,7 @@
         <v>0.22583665093437799</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -10737,7 +10770,7 @@
         <v>0.16326067626933266</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -10758,7 +10791,7 @@
         <v>0.11740183645308504</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -10779,7 +10812,7 @@
         <v>0.8664821127303225</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -10800,7 +10833,7 @@
         <v>8.9905596189896311E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -10821,7 +10854,7 @@
         <v>3.1190805141025749E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -10842,7 +10875,7 @@
         <v>8.7108777194319142E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -10863,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -10884,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -10905,7 +10938,7 @@
         <v>9.115420404048602E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -10926,7 +10959,7 @@
         <v>3.651062449321435E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -10947,7 +10980,7 @@
         <v>0.72378559054253544</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -10968,7 +11001,7 @@
         <v>0.64594384975267982</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -10989,7 +11022,7 @@
         <v>9.4652325465062137E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -11010,7 +11043,7 @@
         <v>0.51984258275382467</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -11031,7 +11064,7 @@
         <v>3.288188007965686E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -11052,7 +11085,7 @@
         <v>0.28124819123219724</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -11073,7 +11106,7 @@
         <v>6.8022805897048316E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -11094,7 +11127,7 @@
         <v>5.3463888623548082E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -11115,7 +11148,7 @@
         <v>0.53588454227689808</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -11136,7 +11169,7 @@
         <v>0.20076945875783922</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -11157,7 +11190,7 @@
         <v>0.26615905334751411</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -11178,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -11199,7 +11232,7 @@
         <v>3.9917605827688746E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -11220,7 +11253,7 @@
         <v>0.50394570385824855</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -11241,7 +11274,7 @@
         <v>6.1669051150259176E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -11262,7 +11295,7 @@
         <v>0.68353572217342684</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -11283,7 +11316,7 @@
         <v>0.54565847917351273</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -11304,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -11325,7 +11358,7 @@
         <v>3.1725026241690067E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -11346,7 +11379,7 @@
         <v>0.11305527542891899</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -11367,7 +11400,7 @@
         <v>0.2206085230385755</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -11388,7 +11421,7 @@
         <v>0.20449567954821435</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -11409,7 +11442,7 @@
         <v>0.222860164442437</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -11430,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -11451,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -11472,7 +11505,7 @@
         <v>3.4546320682787728E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -11493,7 +11526,7 @@
         <v>0.11243335091886168</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -11514,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -11535,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -11556,7 +11589,7 @@
         <v>0.19763004523336877</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -11577,7 +11610,7 @@
         <v>0.21677421771473085</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -11598,7 +11631,7 @@
         <v>5.4056754738807743E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -11619,7 +11652,7 @@
         <v>7.855778194806072E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -11640,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -11661,7 +11694,7 @@
         <v>1.5782035121357021E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -11682,7 +11715,7 @@
         <v>0.30796699029355934</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -11703,7 +11736,7 @@
         <v>0.32863361121118573</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -11724,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -11745,7 +11778,7 @@
         <v>4.1342412189250131E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -11766,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -11787,7 +11820,7 @@
         <v>0.35609978754080596</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -11808,7 +11841,7 @@
         <v>0.1169986724863231</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -11829,7 +11862,7 @@
         <v>0.14896171720012719</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -11850,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -11871,7 +11904,7 @@
         <v>8.0664095844263803E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -11892,7 +11925,7 @@
         <v>5.5356055946472339E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -11913,7 +11946,7 @@
         <v>0.17503802116630948</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -11934,7 +11967,7 @@
         <v>0.16020179739055027</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -11955,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -11976,7 +12009,7 @@
         <v>0.20347078265499577</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -11997,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -12018,7 +12051,7 @@
         <v>0.45067009792582063</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -12039,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -12060,7 +12093,7 @@
         <v>0.52191579059673432</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -12081,7 +12114,7 @@
         <v>9.6996530686144944E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -12102,7 +12135,7 @@
         <v>0.33189176850059043</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -12123,7 +12156,7 @@
         <v>0.21889023114237419</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -12144,7 +12177,7 @@
         <v>0.15704169173722898</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -12165,7 +12198,7 @@
         <v>0.13105812605246273</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -12186,7 +12219,7 @@
         <v>0.53289032469507902</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -12207,7 +12240,7 @@
         <v>0.14994501513524996</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -12228,7 +12261,7 @@
         <v>0.34433266179385019</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -12249,7 +12282,7 @@
         <v>0.12243800430458829</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -12270,7 +12303,7 @@
         <v>8.4649950498201752E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -12291,7 +12324,7 @@
         <v>0.19821087593378905</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
@@ -12312,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
@@ -12333,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
@@ -12354,7 +12387,7 @@
         <v>4.2922629856488011E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
@@ -12375,7 +12408,7 @@
         <v>0.27555271295854877</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
@@ -12396,7 +12429,7 @@
         <v>5.9026848807207231E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
@@ -12417,7 +12450,7 @@
         <v>3.8260754523717221E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
@@ -12438,7 +12471,7 @@
         <v>0.49048897536908681</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -12459,7 +12492,7 @@
         <v>0.12227569198010936</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
@@ -12480,7 +12513,7 @@
         <v>0.35486363727489373</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
@@ -12501,7 +12534,7 @@
         <v>0.44450274781994648</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
@@ -12522,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
@@ -12543,7 +12576,7 @@
         <v>0.27481719007234967</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
@@ -12564,7 +12597,7 @@
         <v>0.1573226833729236</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
@@ -12585,7 +12618,7 @@
         <v>3.8945190308700028E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
@@ -12606,7 +12639,7 @@
         <v>0.33037778455787647</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
@@ -12627,7 +12660,7 @@
         <v>4.3239205963104599E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
@@ -12648,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
@@ -12669,7 +12702,7 @@
         <v>0.29354215545177437</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
@@ -12690,7 +12723,7 @@
         <v>2.7614790473576241E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
@@ -12711,7 +12744,7 @@
         <v>0.17123551618229865</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
@@ -12732,7 +12765,7 @@
         <v>0.5556551427259051</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
@@ -12753,7 +12786,7 @@
         <v>2.2988321672970151E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
@@ -12774,7 +12807,7 @@
         <v>5.9910999418158001E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
@@ -12795,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
@@ -12816,7 +12849,7 @@
         <v>0.1854855944402457</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
@@ -12837,7 +12870,7 @@
         <v>0.25765103353770175</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
@@ -12858,7 +12891,7 @@
         <v>0.21176929885890153</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
@@ -12879,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
@@ -12900,7 +12933,7 @@
         <v>0.52028195363916263</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
@@ -12921,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
@@ -12942,7 +12975,7 @@
         <v>3.9196964881485864E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
@@ -12963,7 +12996,7 @@
         <v>3.0768217768922902E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
@@ -12984,7 +13017,7 @@
         <v>0.12778252731470593</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
@@ -13005,7 +13038,7 @@
         <v>0.31352153736082417</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
@@ -13026,7 +13059,7 @@
         <v>1.5694419346925725E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
@@ -13047,7 +13080,7 @@
         <v>5.496464576099476E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
@@ -13068,7 +13101,7 @@
         <v>5.8422371575939797E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
@@ -13089,7 +13122,7 @@
         <v>0.25765772751151095</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
@@ -13110,7 +13143,7 @@
         <v>7.9071521178224149E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
@@ -13131,7 +13164,7 @@
         <v>0.17991983098018047</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
@@ -13152,7 +13185,7 @@
         <v>5.0315826749977047E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
@@ -13173,7 +13206,7 @@
         <v>4.7809032941067982E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
@@ -13194,7 +13227,7 @@
         <v>0.12109754624656993</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
@@ -13215,7 +13248,7 @@
         <v>0.14530710009150985</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
@@ -13236,7 +13269,7 @@
         <v>0.15964891675479478</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
@@ -13257,7 +13290,7 @@
         <v>2.9244350065298554E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
@@ -13278,7 +13311,7 @@
         <v>0.12485436285969029</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
@@ -13299,7 +13332,7 @@
         <v>0.44611910133920379</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
@@ -13320,7 +13353,7 @@
         <v>3.8866297165777219E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
@@ -13341,7 +13374,7 @@
         <v>0.22620903340543153</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
@@ -13362,7 +13395,7 @@
         <v>0.30360037278931795</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
@@ -13383,7 +13416,7 @@
         <v>0.17100595501722346</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
@@ -13404,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
@@ -13425,7 +13458,7 @@
         <v>5.6763652738030544E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
@@ -13446,7 +13479,7 @@
         <v>0.62583154678219988</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
@@ -13467,7 +13500,7 @@
         <v>0.23039107500404518</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
@@ -13488,7 +13521,7 @@
         <v>5.8326106247447142E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
@@ -13509,7 +13542,7 @@
         <v>0.56901022696488257</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
@@ -13530,7 +13563,7 @@
         <v>0.2053345505857963</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
@@ -13551,7 +13584,7 @@
         <v>4.0918403234504186E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
@@ -13572,7 +13605,7 @@
         <v>4.7302441380455883E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
@@ -13593,7 +13626,7 @@
         <v>0.65956316168063578</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
@@ -13614,7 +13647,7 @@
         <v>0.16406919990734847</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
@@ -13635,7 +13668,7 @@
         <v>0.47507478546414994</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
@@ -13656,7 +13689,7 @@
         <v>0.40308012281908912</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
@@ -13677,7 +13710,7 @@
         <v>0.40168050448915105</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
@@ -13698,7 +13731,7 @@
         <v>0.19355412188813478</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
@@ -13719,7 +13752,7 @@
         <v>2.7875363567254584E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
@@ -13740,7 +13773,7 @@
         <v>1.3843748903717926E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
@@ -13761,7 +13794,7 @@
         <v>0.14281116112261658</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
@@ -13782,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
@@ -13803,7 +13836,7 @@
         <v>0.10700327519144248</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
@@ -13824,7 +13857,7 @@
         <v>3.0289170264227089E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
@@ -13845,7 +13878,7 @@
         <v>7.5865076433590972E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
@@ -13866,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
@@ -13887,7 +13920,7 @@
         <v>0.27602427955146841</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
@@ -13908,7 +13941,7 @@
         <v>0.51947708700458017</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
@@ -13929,7 +13962,7 @@
         <v>3.3406568052043208E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
@@ -13950,7 +13983,7 @@
         <v>9.6491772661611658E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
@@ -13971,7 +14004,7 @@
         <v>0.51813200351214161</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
@@ -13992,7 +14025,7 @@
         <v>1.0365500049233608E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
@@ -14013,7 +14046,7 @@
         <v>4.211372672829658E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
@@ -14034,7 +14067,7 @@
         <v>1.8102711927714975E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
@@ -14055,7 +14088,7 @@
         <v>1.3800690915258226E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
@@ -14076,7 +14109,7 @@
         <v>0.55760720818389076</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
@@ -14097,7 +14130,7 @@
         <v>8.6382123318424677E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
@@ -14118,7 +14151,7 @@
         <v>9.441325009885676E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
@@ -14139,7 +14172,7 @@
         <v>0.22218829842762594</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
@@ -14160,7 +14193,7 @@
         <v>0.13413759974765943</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
@@ -14181,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -14202,7 +14235,7 @@
         <v>0.1718010934153886</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
@@ -14223,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
@@ -14244,7 +14277,7 @@
         <v>4.3525994728521859E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
@@ -14265,7 +14298,7 @@
         <v>0.50790643883259812</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
@@ -14286,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="6" t="s">
         <v>366</v>
       </c>
@@ -14307,7 +14340,7 @@
         <v>0.63582144662629414</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -14322,10 +14355,31 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0da66b-5808-4e40-894c-d6d184f7cea0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="378c26e6-f302-4c33-933c-ef38015be9a9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C4CC3E84D51374C8514E24755999909" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f90c4bc24fec0ece1b54fc5b3a7a4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0da66b-5808-4e40-894c-d6d184f7cea0" xmlns:ns3="378c26e6-f302-4c33-933c-ef38015be9a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37b5436e71b83528dd1006dfb9aa47ab" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0da66b-5808-4e40-894c-d6d184f7cea0"/>
@@ -14548,34 +14602,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0da66b-5808-4e40-894c-d6d184f7cea0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="378c26e6-f302-4c33-933c-ef38015be9a9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2E73EF-4804-4745-B42A-589F6DA4B32A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C84164-A051-46A3-A862-F89A87C0CCD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0da66b-5808-4e40-894c-d6d184f7cea0"/>
+    <ds:schemaRef ds:uri="378c26e6-f302-4c33-933c-ef38015be9a9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D37A75-A822-43B9-A905-296AA2E46964}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D37A75-A822-43B9-A905-296AA2E46964}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C84164-A051-46A3-A862-F89A87C0CCD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2E73EF-4804-4745-B42A-589F6DA4B32A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8d0da66b-5808-4e40-894c-d6d184f7cea0"/>
+    <ds:schemaRef ds:uri="378c26e6-f302-4c33-933c-ef38015be9a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>